--- a/results/mp/logistic/home-spam/confidence/84/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/84/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,67 +43,91 @@
     <t>return</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
     <t>useless</t>
   </si>
   <si>
-    <t>stopped</t>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>cracked</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>broke</t>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>seal</t>
   </si>
   <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>thin</t>
+    <t>ok</t>
   </si>
   <si>
     <t>months</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>filters</t>
-  </si>
-  <si>
     <t>grind</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>lid</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
     <t>filter</t>
   </si>
   <si>
-    <t>broken</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>okay</t>
   </si>
   <si>
     <t>received</t>
@@ -112,28 +136,49 @@
     <t>back</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>sent</t>
   </si>
   <si>
-    <t>sharpe</t>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>less</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>machine</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>hold</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>piece</t>
+    <t>year</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
   <si>
     <t>way</t>
@@ -142,51 +187,48 @@
     <t>small</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>fit</t>
-  </si>
-  <si>
     <t>money</t>
   </si>
   <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>water</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>get</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
@@ -220,31 +262,34 @@
     <t>perfectly</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>great</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
   </si>
   <si>
     <t>good</t>
@@ -608,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,10 +661,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -677,13 +722,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9469026548672567</v>
+        <v>0.9557522123893806</v>
       </c>
       <c r="C3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -695,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K3">
-        <v>0.828125</v>
+        <v>0.859375</v>
       </c>
       <c r="L3">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M3">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -719,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -727,13 +772,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9191919191919192</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,19 +790,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="K4">
-        <v>0.7391304347826086</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -769,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -777,13 +822,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.864406779661017</v>
+        <v>0.9</v>
       </c>
       <c r="C5">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -795,19 +840,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="K5">
-        <v>0.7322033898305085</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L5">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="M5">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -819,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -827,13 +872,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.85</v>
+        <v>0.898989898989899</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -845,19 +890,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="K6">
-        <v>0.7204301075268817</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L6">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M6">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -869,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -877,13 +922,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8490566037735849</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -895,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="K7">
-        <v>0.6656346749226006</v>
+        <v>0.6563467492260062</v>
       </c>
       <c r="L7">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M7">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -919,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -927,13 +972,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8461538461538461</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -945,19 +990,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="K8">
-        <v>0.6103896103896104</v>
+        <v>0.5324675324675324</v>
       </c>
       <c r="L8">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -969,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -977,13 +1022,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.82</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -995,19 +1040,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="K9">
-        <v>0.5887445887445888</v>
+        <v>0.5281385281385281</v>
       </c>
       <c r="L9">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="M9">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1019,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1027,13 +1072,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8054054054054054</v>
+        <v>0.775</v>
       </c>
       <c r="C10">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1045,10 +1090,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="K10">
         <v>0.5</v>
@@ -1077,13 +1122,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7358490566037735</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C11">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1095,31 +1140,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="K11">
-        <v>0.3783783783783784</v>
+        <v>0.367816091954023</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>69</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1127,13 +1172,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7352941176470589</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1145,31 +1190,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="K12">
-        <v>0.3333333333333333</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L12">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="M12">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="N12">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>116</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1177,13 +1222,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.684931506849315</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1195,19 +1240,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="K13">
-        <v>0.3287671232876712</v>
+        <v>0.2993579454253611</v>
       </c>
       <c r="L13">
-        <v>24</v>
+        <v>373</v>
       </c>
       <c r="M13">
-        <v>24</v>
+        <v>373</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1219,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>49</v>
+        <v>873</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1227,13 +1272,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6132075471698113</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C14">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1245,19 +1290,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="K14">
-        <v>0.308641975308642</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L14">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M14">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1269,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1277,13 +1322,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5925925925925926</v>
+        <v>0.71875</v>
       </c>
       <c r="C15">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1295,31 +1340,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="K15">
-        <v>0.297427652733119</v>
+        <v>0.152054794520548</v>
       </c>
       <c r="L15">
-        <v>370</v>
+        <v>111</v>
       </c>
       <c r="M15">
-        <v>372</v>
+        <v>111</v>
       </c>
       <c r="N15">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>874</v>
+        <v>619</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1327,7 +1372,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5897435897435898</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="C16">
         <v>46</v>
@@ -1345,19 +1390,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K16">
-        <v>0.1506849315068493</v>
+        <v>0.1437125748502994</v>
       </c>
       <c r="L16">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1369,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>620</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1377,13 +1422,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5897435897435898</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C17">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1395,31 +1440,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="K17">
-        <v>0.06142506142506143</v>
+        <v>0.07125307125307126</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N17">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O17">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1427,13 +1472,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5658914728682171</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="C18">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="D18">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1445,31 +1490,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K18">
-        <v>0.0492676431424767</v>
+        <v>0.06009615384615385</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="N18">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="O18">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>714</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1477,49 +1522,49 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5510204081632653</v>
+        <v>0.6370370370370371</v>
       </c>
       <c r="C19">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D19">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E19">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="K19">
-        <v>0.04487179487179487</v>
+        <v>0.04645161290322581</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N19">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="O19">
-        <v>0.05000000000000004</v>
+        <v>0.16</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1527,13 +1572,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5454545454545454</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1545,31 +1590,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="K20">
-        <v>0.03559870550161812</v>
+        <v>0.044</v>
       </c>
       <c r="L20">
         <v>33</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N20">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="O20">
-        <v>0.06000000000000005</v>
+        <v>0.13</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>894</v>
+        <v>717</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1577,25 +1622,49 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5211267605633803</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="C21">
+        <v>78</v>
+      </c>
+      <c r="D21">
+        <v>78</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>51</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21">
+        <v>0.03463203463203463</v>
+      </c>
+      <c r="L21">
+        <v>32</v>
+      </c>
+      <c r="M21">
         <v>37</v>
       </c>
-      <c r="D21">
-        <v>37</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>34</v>
+      <c r="N21">
+        <v>0.86</v>
+      </c>
+      <c r="O21">
+        <v>0.14</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>892</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1603,13 +1672,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5132743362831859</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="C22">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="D22">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1621,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1629,13 +1698,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4942528735632184</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C23">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D23">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1647,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1655,13 +1724,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4888888888888889</v>
+        <v>0.5608108108108109</v>
       </c>
       <c r="C24">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="D24">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1673,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1681,13 +1750,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4807692307692308</v>
+        <v>0.5352112676056338</v>
       </c>
       <c r="C25">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1699,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1707,13 +1776,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4743589743589743</v>
+        <v>0.5339805825242718</v>
       </c>
       <c r="C26">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D26">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1725,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1733,13 +1802,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4660194174757282</v>
+        <v>0.5221238938053098</v>
       </c>
       <c r="C27">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D27">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1751,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1759,13 +1828,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4545454545454545</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1777,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1785,25 +1854,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3728813559322034</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>22</v>
-      </c>
-      <c r="D29">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1811,13 +1880,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3519553072625698</v>
+        <v>0.5057471264367817</v>
       </c>
       <c r="C30">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D30">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1829,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>116</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1837,13 +1906,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1855,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1863,13 +1932,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.288659793814433</v>
+        <v>0.4393939393939394</v>
       </c>
       <c r="C32">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1881,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1889,25 +1958,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2513513513513513</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C33">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="D33">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="E33">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>277</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1915,13 +1984,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2323232323232323</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1933,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1941,25 +2010,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2185430463576159</v>
+        <v>0.4</v>
       </c>
       <c r="C35">
+        <v>22</v>
+      </c>
+      <c r="D35">
+        <v>22</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>33</v>
-      </c>
-      <c r="D35">
-        <v>33</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1967,13 +2036,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.217687074829932</v>
+        <v>0.3608247422680412</v>
       </c>
       <c r="C36">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="D36">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1985,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>230</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1993,13 +2062,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2142857142857143</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="C37">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2011,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>165</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2019,13 +2088,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1984126984126984</v>
+        <v>0.2988505747126437</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2037,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2045,13 +2114,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1981981981981982</v>
+        <v>0.2849162011173184</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2063,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>89</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2071,13 +2140,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1793103448275862</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="C40">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D40">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2089,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>119</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2097,13 +2166,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1720430107526882</v>
+        <v>0.2344827586206897</v>
       </c>
       <c r="C41">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D41">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2115,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>154</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2123,13 +2192,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.17</v>
+        <v>0.2318059299191375</v>
       </c>
       <c r="C42">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="D42">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2141,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>166</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2149,25 +2218,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.162280701754386</v>
+        <v>0.2300884955752212</v>
       </c>
       <c r="C43">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D43">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E43">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>191</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2175,13 +2244,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1593406593406593</v>
+        <v>0.2233009708737864</v>
       </c>
       <c r="C44">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D44">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2193,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>153</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2201,13 +2270,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1464646464646465</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C45">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2219,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>169</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2227,13 +2296,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1251700680272109</v>
+        <v>0.22</v>
       </c>
       <c r="C46">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="D46">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2245,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>643</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2253,25 +2322,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.108355091383812</v>
+        <v>0.205</v>
       </c>
       <c r="C47">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D47">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="E47">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>683</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2279,13 +2348,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1024390243902439</v>
+        <v>0.1981981981981982</v>
       </c>
       <c r="C48">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D48">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2297,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>368</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2305,13 +2374,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.09698996655518395</v>
+        <v>0.1910112359550562</v>
       </c>
       <c r="C49">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D49">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2323,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>270</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2331,13 +2400,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.06598984771573604</v>
+        <v>0.1788079470198675</v>
       </c>
       <c r="C50">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D50">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2349,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>368</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2357,13 +2426,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.06145251396648044</v>
+        <v>0.1768707482993197</v>
       </c>
       <c r="C51">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D51">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2375,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>336</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2383,25 +2452,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.0424978317432784</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="C52">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D52">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E52">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>1104</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2409,25 +2478,389 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.03393025447690858</v>
+        <v>0.1572052401746725</v>
       </c>
       <c r="C53">
         <v>36</v>
       </c>
       <c r="D53">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E53">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>1025</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="C54">
+        <v>28</v>
+      </c>
+      <c r="D54">
+        <v>28</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.1513157894736842</v>
+      </c>
+      <c r="C55">
+        <v>23</v>
+      </c>
+      <c r="D55">
+        <v>23</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.1438127090301003</v>
+      </c>
+      <c r="C56">
+        <v>43</v>
+      </c>
+      <c r="D56">
+        <v>43</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.1435897435897436</v>
+      </c>
+      <c r="C57">
+        <v>28</v>
+      </c>
+      <c r="D57">
+        <v>31</v>
+      </c>
+      <c r="E57">
+        <v>0.1</v>
+      </c>
+      <c r="F57">
+        <v>0.9</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.1362397820163488</v>
+      </c>
+      <c r="C58">
+        <v>100</v>
+      </c>
+      <c r="D58">
+        <v>101</v>
+      </c>
+      <c r="E58">
+        <v>0.01</v>
+      </c>
+      <c r="F58">
+        <v>0.99</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.1270718232044199</v>
+      </c>
+      <c r="C59">
+        <v>23</v>
+      </c>
+      <c r="D59">
+        <v>24</v>
+      </c>
+      <c r="E59">
+        <v>0.04</v>
+      </c>
+      <c r="F59">
+        <v>0.96</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.124390243902439</v>
+      </c>
+      <c r="C60">
+        <v>51</v>
+      </c>
+      <c r="D60">
+        <v>51</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.1148825065274151</v>
+      </c>
+      <c r="C61">
+        <v>88</v>
+      </c>
+      <c r="D61">
+        <v>89</v>
+      </c>
+      <c r="E61">
+        <v>0.01</v>
+      </c>
+      <c r="F61">
+        <v>0.99</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.07614213197969544</v>
+      </c>
+      <c r="C62">
+        <v>30</v>
+      </c>
+      <c r="D62">
+        <v>30</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.07246376811594203</v>
+      </c>
+      <c r="C63">
+        <v>25</v>
+      </c>
+      <c r="D63">
+        <v>25</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.06179775280898876</v>
+      </c>
+      <c r="C64">
+        <v>22</v>
+      </c>
+      <c r="D64">
+        <v>24</v>
+      </c>
+      <c r="E64">
+        <v>0.08</v>
+      </c>
+      <c r="F64">
+        <v>0.92</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="C65">
+        <v>22</v>
+      </c>
+      <c r="D65">
+        <v>26</v>
+      </c>
+      <c r="E65">
+        <v>0.15</v>
+      </c>
+      <c r="F65">
+        <v>0.85</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.05327510917030567</v>
+      </c>
+      <c r="C66">
+        <v>61</v>
+      </c>
+      <c r="D66">
+        <v>73</v>
+      </c>
+      <c r="E66">
+        <v>0.16</v>
+      </c>
+      <c r="F66">
+        <v>0.84</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>0.02743614001892148</v>
+      </c>
+      <c r="C67">
+        <v>29</v>
+      </c>
+      <c r="D67">
+        <v>44</v>
+      </c>
+      <c r="E67">
+        <v>0.34</v>
+      </c>
+      <c r="F67">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
